--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ituka\git_projects\short_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0607AF97-F41A-4647-8E2A-0C006E71F582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B23C870-9189-4707-96E8-14E538FD17BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="3310" windowWidth="22480" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="2280" windowWidth="22480" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>interval</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いんたーばる</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -93,16 +89,6 @@
     </rPh>
     <rPh sb="27" eb="28">
       <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>interval のみ予約語となります。</t>
-    <rPh sb="11" eb="13">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -171,6 +157,74 @@
       <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>repeat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りぴーと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約語</t>
+    <rPh sb="0" eb="3">
+      <t>ヨヤクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目ごとに設けられるインターバルの時間設定。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ジカンセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体を何回リピートするかを示す回数。この行だけ seconds の列は秒数ではなく、回数の意味。</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナンカイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ビョウスウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>いんたーばる</t>
   </si>
 </sst>
 </file>
@@ -193,12 +247,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -221,6 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -501,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -515,57 +576,68 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -577,10 +649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547A6C39-F3F1-4877-BE79-7C9CF8BDBEA9}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -593,10 +665,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -604,18 +676,34 @@
     </row>
     <row r="2" spans="1:3" ht="54">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="36">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ituka\git_projects\short_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B23C870-9189-4707-96E8-14E538FD17BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7DF090-F9A4-4491-A74B-4AFBF8316352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2280" windowWidth="22480" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4550" yWindow="2000" windowWidth="22480" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>interval</t>
     <phoneticPr fontId="1"/>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>りぴーと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>予約語</t>
     <rPh sb="0" eb="3">
       <t>ヨヤクゴ</t>
@@ -190,41 +186,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全体を何回リピートするかを示す回数。この行だけ seconds の列は秒数ではなく、回数の意味。</t>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>いんたーばる</t>
+  </si>
+  <si>
+    <t>リピートする回数を設定します。</t>
+    <rPh sb="6" eb="8">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定する。</t>
     <rPh sb="0" eb="2">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナンカイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interval のリピート回数は設定しなくてよい。デフォルトではとりあえず１を入れておく。</t>
+    <rPh sb="14" eb="16">
       <t>カイスウ</t>
     </rPh>
-    <rPh sb="20" eb="21">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ビョウスウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>イミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>interval</t>
-  </si>
-  <si>
-    <t>いんたーばる</t>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prepare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゅんびたいそう</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -282,6 +285,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -562,19 +566,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="8.9140625" customWidth="1"/>
-    <col min="3" max="3" width="69.83203125" customWidth="1"/>
+    <col min="2" max="3" width="8.9140625" customWidth="1"/>
+    <col min="4" max="4" width="69.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -582,61 +586,79 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4">
+        <v>120</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -649,21 +671,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547A6C39-F3F1-4877-BE79-7C9CF8BDBEA9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="32.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="69.83203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="2"/>
+    <col min="2" max="3" width="25.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -671,10 +693,13 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="54">
+    <row r="2" spans="1:4" ht="54">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -682,28 +707,29 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="72">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="36">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
